--- a/_DOCS/Input_Armonizacion_check_2017_2020.xlsx
+++ b/_DOCS/Input_Armonizacion_check_2017_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martafurtadoluzes/Dropbox/IDB-Projects-Marta/Stewardship/EH_Harmonizacion/Check/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idbg-my.sharepoint.com/personal/linaa_iadb_org/Documents/Documents/GitHub/armonizacion_microdatos_encuestas_hogares_scl/_DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCEF14E-7123-934A-B77F-76088A8DD88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{ACCEF14E-7123-934A-B77F-76088A8DD88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D353BF-7112-4790-B5DE-676B3874FACC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25860" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -437,14 +437,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,7 +453,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -811,57 +811,57 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O1"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="29" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="2:15" ht="27" customHeight="1">
+      <c r="B1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-    </row>
-    <row r="2" spans="2:15" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="2:15" ht="43.05" customHeight="1">
       <c r="B2" s="20"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="21"/>
       <c r="D3" s="3">
         <v>2017</v>
@@ -900,8 +900,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B4" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -920,8 +920,8 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
+    <row r="5" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B5" s="36"/>
       <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
@@ -938,8 +938,8 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
+    <row r="6" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B6" s="36"/>
       <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
@@ -956,8 +956,8 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B7" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -976,8 +976,8 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
+    <row r="8" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B8" s="36"/>
       <c r="C8" s="23" t="s">
         <v>4</v>
       </c>
@@ -994,8 +994,8 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
+    <row r="9" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B9" s="36"/>
       <c r="C9" s="23" t="s">
         <v>5</v>
       </c>
@@ -1012,8 +1012,8 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
+    <row r="10" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B10" s="36"/>
       <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1030,8 @@
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="34"/>
+    <row r="11" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B11" s="36"/>
       <c r="C11" s="23" t="s">
         <v>7</v>
       </c>
@@ -1048,8 +1048,8 @@
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
     </row>
-    <row r="12" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="34"/>
+    <row r="12" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B12" s="36"/>
       <c r="C12" s="23" t="s">
         <v>8</v>
       </c>
@@ -1066,8 +1066,8 @@
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
+    <row r="13" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B13" s="36"/>
       <c r="C13" s="23" t="s">
         <v>9</v>
       </c>
@@ -1084,8 +1084,8 @@
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
     </row>
-    <row r="14" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34"/>
+    <row r="14" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B14" s="36"/>
       <c r="C14" s="23" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1102,8 @@
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
     </row>
-    <row r="15" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
+    <row r="15" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B15" s="36"/>
       <c r="C15" s="23" t="s">
         <v>11</v>
       </c>
@@ -1120,8 +1120,8 @@
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B16" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -1140,8 +1140,8 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
     </row>
-    <row r="17" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
+    <row r="17" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B17" s="36"/>
       <c r="C17" s="23" t="s">
         <v>12</v>
       </c>
@@ -1158,8 +1158,8 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
     </row>
-    <row r="18" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
+    <row r="18" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B18" s="36"/>
       <c r="C18" s="23" t="s">
         <v>12</v>
       </c>
@@ -1176,8 +1176,8 @@
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
     </row>
-    <row r="19" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
+    <row r="19" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B19" s="36"/>
       <c r="C19" s="23" t="s">
         <v>13</v>
       </c>
@@ -1194,8 +1194,8 @@
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
     </row>
-    <row r="20" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B20" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -1214,8 +1214,8 @@
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
     </row>
-    <row r="21" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
+    <row r="21" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B21" s="36"/>
       <c r="C21" s="22" t="s">
         <v>18</v>
       </c>
@@ -1232,8 +1232,8 @@
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="34"/>
+    <row r="22" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B22" s="36"/>
       <c r="C22" s="22" t="s">
         <v>15</v>
       </c>
@@ -1250,8 +1250,8 @@
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
     </row>
-    <row r="23" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="34"/>
+    <row r="23" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B23" s="36"/>
       <c r="C23" s="22" t="s">
         <v>16</v>
       </c>
@@ -1268,8 +1268,8 @@
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34"/>
+    <row r="24" spans="2:15" ht="31.05" customHeight="1">
+      <c r="B24" s="36"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,20 +1305,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:H21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
     <col min="3" max="6" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="5"/>
+    <col min="11" max="16384" width="10.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="B1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -1376,7 +1376,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="B6" s="4"/>
       <c r="C6" s="15"/>
       <c r="D6" s="4"/>
@@ -1386,7 +1386,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="B7" s="31"/>
       <c r="C7" s="17" t="s">
         <v>28</v>
@@ -1397,7 +1397,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="32"/>
       <c r="C8" s="17" t="s">
         <v>29</v>
@@ -1409,7 +1409,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
@@ -1419,8 +1419,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="A10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="4"/>
@@ -1432,24 +1432,24 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="24" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="40.950000000000003" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>30</v>
@@ -1480,8 +1480,8 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A13" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -1521,8 +1521,8 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A14" s="38"/>
       <c r="B14" s="25" t="s">
         <v>1</v>
       </c>
@@ -1560,8 +1560,8 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A15" s="38"/>
       <c r="B15" s="25" t="s">
         <v>2</v>
       </c>
@@ -1599,8 +1599,8 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A16" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -1640,8 +1640,8 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A17" s="38"/>
       <c r="B17" s="25" t="s">
         <v>4</v>
       </c>
@@ -1679,8 +1679,8 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A18" s="38"/>
       <c r="B18" s="25" t="s">
         <v>5</v>
       </c>
@@ -1718,8 +1718,8 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A19" s="38"/>
       <c r="B19" s="25" t="s">
         <v>6</v>
       </c>
@@ -1757,8 +1757,8 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A20" s="38"/>
       <c r="B20" s="25" t="s">
         <v>7</v>
       </c>
@@ -1796,8 +1796,8 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A21" s="38"/>
       <c r="B21" s="25" t="s">
         <v>8</v>
       </c>
@@ -1835,8 +1835,8 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+    <row r="22" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A22" s="38"/>
       <c r="B22" s="25" t="s">
         <v>9</v>
       </c>
@@ -1874,8 +1874,8 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A23" s="38"/>
       <c r="B23" s="25" t="s">
         <v>10</v>
       </c>
@@ -1913,8 +1913,8 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A24" s="38"/>
       <c r="B24" s="25" t="s">
         <v>11</v>
       </c>
@@ -1952,8 +1952,8 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A25" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -1993,8 +1993,8 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A26" s="38"/>
       <c r="B26" s="25" t="s">
         <v>12</v>
       </c>
@@ -2032,8 +2032,8 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A27" s="38"/>
       <c r="B27" s="25" t="s">
         <v>12</v>
       </c>
@@ -2071,8 +2071,8 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A28" s="38"/>
       <c r="B28" s="25" t="s">
         <v>13</v>
       </c>
@@ -2110,8 +2110,8 @@
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A29" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2151,8 +2151,8 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A30" s="38"/>
       <c r="B30" s="24" t="s">
         <v>18</v>
       </c>
@@ -2190,8 +2190,8 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A31" s="38"/>
       <c r="B31" s="24" t="s">
         <v>15</v>
       </c>
@@ -2229,8 +2229,8 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A32" s="38"/>
       <c r="B32" s="24" t="s">
         <v>16</v>
       </c>
@@ -2268,8 +2268,8 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:11" ht="25.95" customHeight="1">
+      <c r="A33" s="38"/>
       <c r="B33" s="26" t="s">
         <v>14</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="43.95" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2320,7 +2320,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2333,7 +2333,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2346,7 +2346,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2359,7 +2359,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2372,7 +2372,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2385,7 +2385,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2398,7 +2398,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2411,7 +2411,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2424,7 +2424,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2437,7 +2437,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2450,7 +2450,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2463,7 +2463,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2476,7 +2476,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2489,7 +2489,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2502,7 +2502,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>

--- a/_DOCS/Input_Armonizacion_check_2017_2020.xlsx
+++ b/_DOCS/Input_Armonizacion_check_2017_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idbg-my.sharepoint.com/personal/linaa_iadb_org/Documents/Documents/GitHub/armonizacion_microdatos_encuestas_hogares_scl/_DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{ACCEF14E-7123-934A-B77F-76088A8DD88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D353BF-7112-4790-B5DE-676B3874FACC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{ACCEF14E-7123-934A-B77F-76088A8DD88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F04CB7B7-EC52-4F80-8D26-B00084025271}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -811,15 +811,15 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="D4" sqref="D4:O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="29" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="2"/>
+    <col min="4" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="27" customHeight="1">
@@ -840,7 +840,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="2:15" ht="43.05" customHeight="1">
+    <row r="2" spans="2:15" ht="43.15" customHeight="1">
       <c r="B2" s="20"/>
       <c r="D2" s="35" t="s">
         <v>19</v>
@@ -900,7 +900,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="31.05" customHeight="1">
+    <row r="4" spans="2:15" ht="31.15" customHeight="1">
       <c r="B4" s="36" t="s">
         <v>21</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="2:15" ht="31.05" customHeight="1">
+    <row r="5" spans="2:15" ht="31.15" customHeight="1">
       <c r="B5" s="36"/>
       <c r="C5" s="23" t="s">
         <v>1</v>
@@ -938,7 +938,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="2:15" ht="31.05" customHeight="1">
+    <row r="6" spans="2:15" ht="31.15" customHeight="1">
       <c r="B6" s="36"/>
       <c r="C6" s="23" t="s">
         <v>2</v>
@@ -956,7 +956,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="2:15" ht="31.05" customHeight="1">
+    <row r="7" spans="2:15" ht="31.15" customHeight="1">
       <c r="B7" s="36" t="s">
         <v>22</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="2:15" ht="31.05" customHeight="1">
+    <row r="8" spans="2:15" ht="31.15" customHeight="1">
       <c r="B8" s="36"/>
       <c r="C8" s="23" t="s">
         <v>4</v>
@@ -994,7 +994,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="2:15" ht="31.05" customHeight="1">
+    <row r="9" spans="2:15" ht="31.15" customHeight="1">
       <c r="B9" s="36"/>
       <c r="C9" s="23" t="s">
         <v>5</v>
@@ -1012,7 +1012,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="2:15" ht="31.05" customHeight="1">
+    <row r="10" spans="2:15" ht="31.15" customHeight="1">
       <c r="B10" s="36"/>
       <c r="C10" s="23" t="s">
         <v>6</v>
@@ -1030,7 +1030,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="2:15" ht="31.05" customHeight="1">
+    <row r="11" spans="2:15" ht="31.15" customHeight="1">
       <c r="B11" s="36"/>
       <c r="C11" s="23" t="s">
         <v>7</v>
@@ -1048,7 +1048,7 @@
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
     </row>
-    <row r="12" spans="2:15" ht="31.05" customHeight="1">
+    <row r="12" spans="2:15" ht="31.15" customHeight="1">
       <c r="B12" s="36"/>
       <c r="C12" s="23" t="s">
         <v>8</v>
@@ -1066,7 +1066,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="2:15" ht="31.05" customHeight="1">
+    <row r="13" spans="2:15" ht="31.15" customHeight="1">
       <c r="B13" s="36"/>
       <c r="C13" s="23" t="s">
         <v>9</v>
@@ -1084,7 +1084,7 @@
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
     </row>
-    <row r="14" spans="2:15" ht="31.05" customHeight="1">
+    <row r="14" spans="2:15" ht="31.15" customHeight="1">
       <c r="B14" s="36"/>
       <c r="C14" s="23" t="s">
         <v>10</v>
@@ -1102,7 +1102,7 @@
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
     </row>
-    <row r="15" spans="2:15" ht="31.05" customHeight="1">
+    <row r="15" spans="2:15" ht="31.15" customHeight="1">
       <c r="B15" s="36"/>
       <c r="C15" s="23" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="2:15" ht="31.05" customHeight="1">
+    <row r="16" spans="2:15" ht="31.15" customHeight="1">
       <c r="B16" s="36" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
     </row>
-    <row r="17" spans="2:15" ht="31.05" customHeight="1">
+    <row r="17" spans="2:15" ht="31.15" customHeight="1">
       <c r="B17" s="36"/>
       <c r="C17" s="23" t="s">
         <v>12</v>
@@ -1158,7 +1158,7 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
     </row>
-    <row r="18" spans="2:15" ht="31.05" customHeight="1">
+    <row r="18" spans="2:15" ht="31.15" customHeight="1">
       <c r="B18" s="36"/>
       <c r="C18" s="23" t="s">
         <v>12</v>
@@ -1176,7 +1176,7 @@
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
     </row>
-    <row r="19" spans="2:15" ht="31.05" customHeight="1">
+    <row r="19" spans="2:15" ht="31.15" customHeight="1">
       <c r="B19" s="36"/>
       <c r="C19" s="23" t="s">
         <v>13</v>
@@ -1194,7 +1194,7 @@
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
     </row>
-    <row r="20" spans="2:15" ht="31.05" customHeight="1">
+    <row r="20" spans="2:15" ht="31.15" customHeight="1">
       <c r="B20" s="36" t="s">
         <v>24</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
     </row>
-    <row r="21" spans="2:15" ht="31.05" customHeight="1">
+    <row r="21" spans="2:15" ht="31.15" customHeight="1">
       <c r="B21" s="36"/>
       <c r="C21" s="22" t="s">
         <v>18</v>
@@ -1232,7 +1232,7 @@
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="2:15" ht="31.05" customHeight="1">
+    <row r="22" spans="2:15" ht="31.15" customHeight="1">
       <c r="B22" s="36"/>
       <c r="C22" s="22" t="s">
         <v>15</v>
@@ -1250,7 +1250,7 @@
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
     </row>
-    <row r="23" spans="2:15" ht="31.05" customHeight="1">
+    <row r="23" spans="2:15" ht="31.15" customHeight="1">
       <c r="B23" s="36"/>
       <c r="C23" s="22" t="s">
         <v>16</v>
@@ -1268,7 +1268,7 @@
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="2:15" ht="31.05" customHeight="1">
+    <row r="24" spans="2:15" ht="31.15" customHeight="1">
       <c r="B24" s="36"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
@@ -1305,17 +1305,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.77734375" style="5"/>
+    <col min="11" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1366,7 +1366,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
@@ -1449,7 +1449,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="40.950000000000003" customHeight="1">
+    <row r="12" spans="1:11" ht="40.9" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="28" t="s">
         <v>30</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="25.95" customHeight="1">
+    <row r="13" spans="1:11" ht="25.9" customHeight="1">
       <c r="A13" s="38" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="25.95" customHeight="1">
+    <row r="14" spans="1:11" ht="25.9" customHeight="1">
       <c r="A14" s="38"/>
       <c r="B14" s="25" t="s">
         <v>1</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="25.95" customHeight="1">
+    <row r="15" spans="1:11" ht="25.9" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="25" t="s">
         <v>2</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="25.95" customHeight="1">
+    <row r="16" spans="1:11" ht="25.9" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="25.95" customHeight="1">
+    <row r="17" spans="1:11" ht="25.9" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="25" t="s">
         <v>4</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="25.95" customHeight="1">
+    <row r="18" spans="1:11" ht="25.9" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="25" t="s">
         <v>5</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="25.95" customHeight="1">
+    <row r="19" spans="1:11" ht="25.9" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="25" t="s">
         <v>6</v>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="25.95" customHeight="1">
+    <row r="20" spans="1:11" ht="25.9" customHeight="1">
       <c r="A20" s="38"/>
       <c r="B20" s="25" t="s">
         <v>7</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="25.95" customHeight="1">
+    <row r="21" spans="1:11" ht="25.9" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="25" t="s">
         <v>8</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="25.95" customHeight="1">
+    <row r="22" spans="1:11" ht="25.9" customHeight="1">
       <c r="A22" s="38"/>
       <c r="B22" s="25" t="s">
         <v>9</v>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="25.95" customHeight="1">
+    <row r="23" spans="1:11" ht="25.9" customHeight="1">
       <c r="A23" s="38"/>
       <c r="B23" s="25" t="s">
         <v>10</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="25.95" customHeight="1">
+    <row r="24" spans="1:11" ht="25.9" customHeight="1">
       <c r="A24" s="38"/>
       <c r="B24" s="25" t="s">
         <v>11</v>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="25.95" customHeight="1">
+    <row r="25" spans="1:11" ht="25.9" customHeight="1">
       <c r="A25" s="38" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="25.95" customHeight="1">
+    <row r="26" spans="1:11" ht="25.9" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" s="25" t="s">
         <v>12</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="25.95" customHeight="1">
+    <row r="27" spans="1:11" ht="25.9" customHeight="1">
       <c r="A27" s="38"/>
       <c r="B27" s="25" t="s">
         <v>12</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="25.95" customHeight="1">
+    <row r="28" spans="1:11" ht="25.9" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="25" t="s">
         <v>13</v>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="25.95" customHeight="1">
+    <row r="29" spans="1:11" ht="25.9" customHeight="1">
       <c r="A29" s="38" t="s">
         <v>24</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="25.95" customHeight="1">
+    <row r="30" spans="1:11" ht="25.9" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="24" t="s">
         <v>18</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="25.95" customHeight="1">
+    <row r="31" spans="1:11" ht="25.9" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="24" t="s">
         <v>15</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="25.95" customHeight="1">
+    <row r="32" spans="1:11" ht="25.9" customHeight="1">
       <c r="A32" s="38"/>
       <c r="B32" s="24" t="s">
         <v>16</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="25.95" customHeight="1">
+    <row r="33" spans="1:11" ht="25.9" customHeight="1">
       <c r="A33" s="38"/>
       <c r="B33" s="26" t="s">
         <v>14</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="43.95" customHeight="1">
+    <row r="34" spans="1:11" ht="43.9" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
